--- a/2024 Game Day Info/PUL 2024 Game Day Requirement Tracking.xlsx
+++ b/2024 Game Day Info/PUL 2024 Game Day Requirement Tracking.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6wU6aw7kEz+Y2amB5J1Hy1whgBkdl/79rUWMr31ZE7o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Kc1vNw2zl/+sAypwp5BI9cEMLrCbXLRfCSMf0QylamM="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,6 +21,46 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="P16">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABM9LJDU4
+Bonesaw X    (2024-05-07 18:57:00)
+@premierultimateleague@gmail.com Brooks says he sent them to you via DM's</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N13">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABMqotExE
+Premier Ultimate League    (2024-05-01 22:32:07)
+@mike@raleighradiance.com @jinnykeun@gmail.com @TSmith@raleighradiance.com add you observers' names</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q13">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABMqotExA
+Premier Ultimate League    (2024-05-01 22:31:24)
+@mike@raleighradiance.com @jinnykeun@gmail.com @TSmith@raleighradiance.com - Please enter your info</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q4">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABMqotEw4
+Premier Ultimate League    (2024-05-01 22:29:56)
+@jinnykeun@gmail.com @TSmith@raleighradiance.com @mike@raleighradiance.com - Plz fill in your missing info</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R8">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABMqotEw0
+Premier Ultimate League    (2024-05-01 22:29:38)
+@dcshadowultimate@gmail.com can you enter your missing info?</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="R10">
       <text>
         <t xml:space="preserve">======
@@ -43,14 +83,6 @@
 ID#AAABMIexwRI
 Lily Ponitz    (2024-04-19 17:05:46)
 Includes season tickets and single game tickets. Future games won't include season ticket sales.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O2">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABJ1RwT9o
-Premier Ultimate League    (2024-04-08 19:49:29)
-@kevinn.diaz03@gmail.com when you get the stats for both teams for a game, can you mark "Yes"</t>
       </text>
     </comment>
     <comment authorId="0" ref="N4">
@@ -84,14 +116,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjppf5xqBUTINClbkdOYZnPDa/gjQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miHn7JIcHPpdOmw8FD45HfhH/vlcA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="95">
   <si>
     <t>Commissioner</t>
   </si>
@@ -195,6 +227,9 @@
     <t>wa3f-casf-4967-d41g-ed57</t>
   </si>
   <si>
+    <t>Bill Bourret, Daniel Wong, Scott Todd, Terrence Mitchell</t>
+  </si>
+  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -249,7 +284,7 @@
     <t>PORT</t>
   </si>
   <si>
-    <t>no</t>
+    <t>NO</t>
   </si>
   <si>
     <t>PUL 2024: New York Gridlock @ Portland Rising 4/20 Tape Delay - YouTube</t>
@@ -282,15 +317,27 @@
     <t>02gv-qcst-x8ys-e1fb-4xva</t>
   </si>
   <si>
+    <t>Daniel Wong, Clint McSherry, Marcus Bland, Jake McGoogan</t>
+  </si>
+  <si>
     <t>ch4c-kg5s-tzac-yua0-61uq</t>
   </si>
   <si>
+    <t>Colby Parker, Erik Olsen</t>
+  </si>
+  <si>
     <t>gj6a-6gyv-je75-c8ja-e5bt</t>
   </si>
   <si>
+    <t>Carl Nelson and Steve Ogdahl</t>
+  </si>
+  <si>
     <t>e9b8-84pr-k15x-ycph-00by</t>
   </si>
   <si>
+    <t>Sunshine Knize, Amy Kendziorski</t>
+  </si>
+  <si>
     <t>agwr-6u2x-wjbg-745y-ccbj</t>
   </si>
   <si>
@@ -300,13 +347,13 @@
     <t>ark7-0apy-8svz-kjvz-825g</t>
   </si>
   <si>
+    <t>Craig McGowan, Brad Smith</t>
+  </si>
+  <si>
     <t>mqm5-309x-y0rv-4qc3-97j3</t>
   </si>
   <si>
-    <t>Steve Haynes, Sam Shapiro, Scott Hetu, Rebekah Seyfert, Madison Olesen</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>Bill Bourret, Sam Shapiro, Scott Hetu, Rebekah Seyfert, Madison Olesen</t>
   </si>
   <si>
     <t>9xm5-fmp1-trhp-91k6-4kde</t>
@@ -321,7 +368,7 @@
     <t>6kdq-rfyu-zzbp-5zpu-d5qg</t>
   </si>
   <si>
-    <t>y5g2-px1v-m83v-uadu-77tm</t>
+    <t>Ultiworld</t>
   </si>
   <si>
     <t>es89-qsbx-97vp-52v0-fbzf</t>
@@ -374,7 +421,7 @@
     <numFmt numFmtId="167" formatCode="m/d/yy"/>
     <numFmt numFmtId="168" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -441,12 +488,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
-      <color rgb="FFD1D2D3"/>
+      <color rgb="FF222529"/>
       <name val="Slack-Lato"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,12 +516,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF222529"/>
-        <bgColor rgb="FF222529"/>
       </patternFill>
     </fill>
   </fills>
@@ -548,9 +595,6 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -639,23 +683,28 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -928,8 +977,8 @@
     <col customWidth="1" min="2" max="2" width="9.75"/>
     <col customWidth="1" min="3" max="3" width="10.0"/>
     <col customWidth="1" min="4" max="4" width="10.38"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="13.63"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="9.75"/>
+    <col customWidth="1" min="5" max="5" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="9.75"/>
     <col customWidth="1" min="7" max="7" width="8.5"/>
     <col customWidth="1" min="8" max="8" width="10.0"/>
     <col customWidth="1" min="9" max="9" width="10.38"/>
@@ -1017,7 +1066,7 @@
       <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -1036,7 +1085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="15.75" hidden="1" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="8">
         <v>1.0</v>
       </c>
@@ -1138,7 +1187,9 @@
       <c r="M4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="O4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1146,11 +1197,11 @@
         <v>25</v>
       </c>
       <c r="Q4" s="8"/>
-      <c r="R4" s="18"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" ht="15.75" hidden="1" customHeight="1">
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>1.0</v>
       </c>
@@ -1158,10 +1209,10 @@
         <v>45389.0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>24</v>
@@ -1185,13 +1236,13 @@
         <v>26</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>25</v>
@@ -1202,79 +1253,79 @@
       <c r="Q5" s="8">
         <v>350.0</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <v>3000.0</v>
       </c>
       <c r="S5" s="8">
         <v>400.0</v>
       </c>
-      <c r="T5" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="19">
+      <c r="T5" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="18">
         <v>2.0</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>45395.0</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="25" t="s">
+      <c r="D6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="19">
+      <c r="N6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="18">
         <v>229.0</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>5112.0</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>250.0</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <v>2162.0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>2.0</v>
       </c>
@@ -1282,10 +1333,10 @@
         <v>45395.0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>24</v>
@@ -1293,13 +1344,13 @@
       <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="26" t="s">
+      <c r="G7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -1309,31 +1360,31 @@
         <v>26</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="26">
+      <c r="N7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="25">
         <v>127.0</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>2610.0</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>157.0</v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>45</v>
+      <c r="T7" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="29.25" customHeight="1">
@@ -1355,13 +1406,13 @@
       <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="26" t="s">
+      <c r="G8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -1371,30 +1422,30 @@
         <v>26</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="26">
+      <c r="N8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="25">
         <v>504.0</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="26">
+      <c r="R8" s="28"/>
+      <c r="S8" s="25">
         <v>515.0</v>
       </c>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" ht="15.75" hidden="1" customHeight="1">
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>2.0</v>
       </c>
@@ -1402,10 +1453,10 @@
         <v>45396.0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>24</v>
@@ -1429,92 +1480,92 @@
         <v>26</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="26">
+      <c r="N9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="25">
         <v>628.0</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="29">
         <v>10048.0</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="25">
         <v>705.0</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="25">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="31">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="30">
         <v>3.0</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>45402.0</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="C10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="E10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="K10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="37" t="s">
+      <c r="L10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="34">
+      <c r="M10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="33">
         <v>192.0</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="38">
         <v>4392.15</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="39">
         <v>192.0</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="40">
         <v>300.0</v>
       </c>
     </row>
@@ -1529,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
@@ -1537,13 +1588,13 @@
       <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -1553,22 +1604,30 @@
         <v>26</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="26"/>
+      <c r="N11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="25">
+        <v>479.0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>8143.0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>511.0</v>
+      </c>
+      <c r="T11" s="25">
+        <v>1900.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="8">
@@ -1578,10 +1637,10 @@
         <v>45409.0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>24</v>
@@ -1589,14 +1648,14 @@
       <c r="F12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>59</v>
+      <c r="G12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>25</v>
@@ -1605,46 +1664,50 @@
         <v>26</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="26">
+      <c r="N12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="25">
         <v>537.0</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="25">
         <v>8321.19</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="25">
         <v>521.0</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="25">
         <v>385.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <v>4.0</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>45410.0</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1656,69 +1719,101 @@
       <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="46" t="s">
+      <c r="J13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
+      <c r="N13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="47">
+        <v>151.0</v>
+      </c>
+      <c r="R13" s="47">
+        <v>2521.0</v>
+      </c>
+      <c r="S13" s="47">
+        <v>151.0</v>
+      </c>
+      <c r="T13" s="47">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="18">
         <v>5.0</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="19">
         <v>45416.0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="29"/>
+      <c r="N14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="49">
+        <v>58.0</v>
+      </c>
+      <c r="R14" s="49">
+        <v>780.0</v>
+      </c>
+      <c r="S14" s="49">
+        <v>65.0</v>
+      </c>
+      <c r="T14" s="22">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="8">
@@ -1728,10 +1823,10 @@
         <v>45416.0</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>24</v>
@@ -1739,9 +1834,15 @@
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="G15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="J15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1749,18 +1850,32 @@
         <v>26</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
+      <c r="N15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="51">
+        <v>469.0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>8146.0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>427.0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="8">
@@ -1770,10 +1885,10 @@
         <v>45416.0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>24</v>
@@ -1781,13 +1896,15 @@
       <c r="F16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="49"/>
+      <c r="G16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="J16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1795,18 +1912,30 @@
         <v>26</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
+      <c r="N16" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>200.0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>2000.0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>250.0</v>
+      </c>
+      <c r="T16" s="25">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="8">
@@ -1816,7 +1945,7 @@
         <v>45416.0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>22</v>
@@ -1827,9 +1956,15 @@
       <c r="F17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="G17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1837,18 +1972,18 @@
         <v>26</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M17" s="16"/>
-      <c r="N17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="N17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="8">
@@ -1869,9 +2004,15 @@
       <c r="F18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="G18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1879,57 +2020,67 @@
         <v>26</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="N18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>340.0</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="25">
+        <v>400.0</v>
+      </c>
+      <c r="T18" s="28"/>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>7.0</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>45430.0</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="D19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="25" t="s">
+      <c r="I19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="53" t="s">
-        <v>70</v>
+      <c r="N19" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
@@ -1949,7 +2100,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>24</v>
@@ -1957,26 +2108,32 @@
       <c r="F20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="G20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J20" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M20" s="16"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8">
@@ -1986,20 +2143,24 @@
         <v>45430.0</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="G21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="28"/>
       <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
@@ -2007,18 +2168,18 @@
         <v>26</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8">
@@ -2028,7 +2189,7 @@
         <v>45431.0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>22</v>
@@ -2039,9 +2200,13 @@
       <c r="F22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="G22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="28"/>
       <c r="J22" s="8" t="s">
         <v>25</v>
       </c>
@@ -2049,16 +2214,16 @@
         <v>26</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M22" s="16"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8">
@@ -2068,7 +2233,7 @@
         <v>45431.0</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>32</v>
@@ -2079,9 +2244,9 @@
       <c r="F23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="8" t="s">
         <v>25</v>
       </c>
@@ -2089,18 +2254,20 @@
         <v>26</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
+      <c r="N23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8">
@@ -2110,10 +2277,10 @@
         <v>45430.0</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>24</v>
@@ -2121,70 +2288,74 @@
       <c r="F24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="G24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>76</v>
+      <c r="K24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="N24" s="53"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
     </row>
     <row r="25" ht="27.0" customHeight="1">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>8.0</v>
       </c>
       <c r="B25" s="55">
         <v>45437.0</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="34" t="s">
+      <c r="C25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="30" t="s">
         <v>25</v>
       </c>
       <c r="K25" s="57" t="s">
         <v>26</v>
       </c>
       <c r="L25" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="37" t="s">
-        <v>78</v>
+      <c r="N25" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="O25" s="56"/>
-      <c r="P25" s="34"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
       <c r="S25" s="56"/>
@@ -2198,10 +2369,10 @@
         <v>45444.0</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>24</v>
@@ -2209,9 +2380,9 @@
       <c r="F26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="8" t="s">
         <v>25</v>
       </c>
@@ -2219,18 +2390,18 @@
         <v>26</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8">
@@ -2240,10 +2411,10 @@
         <v>45444.0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>24</v>
@@ -2251,11 +2422,11 @@
       <c r="F27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="G27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2263,20 +2434,20 @@
         <v>26</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
+      <c r="N27" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8">
@@ -2286,7 +2457,7 @@
         <v>45444.0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>31</v>
@@ -2297,9 +2468,9 @@
       <c r="F28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="8" t="s">
         <v>25</v>
       </c>
@@ -2307,18 +2478,18 @@
         <v>26</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8">
@@ -2328,10 +2499,10 @@
         <v>45445.0</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>24</v>
@@ -2339,9 +2510,9 @@
       <c r="F29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="8" t="s">
         <v>25</v>
       </c>
@@ -2349,18 +2520,18 @@
         <v>26</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8">
@@ -2370,7 +2541,7 @@
         <v>45445.0</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>23</v>
@@ -2381,9 +2552,9 @@
       <c r="F30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="8" t="s">
         <v>25</v>
       </c>
@@ -2391,51 +2562,51 @@
         <v>26</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>10.0</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>45451.0</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="C31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
-      <c r="J31" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="24"/>
+      <c r="J31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" s="23"/>
       <c r="N31" s="58"/>
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
@@ -2455,7 +2626,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>24</v>
@@ -2463,9 +2634,9 @@
       <c r="F32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="8" t="s">
         <v>25</v>
       </c>
@@ -2473,18 +2644,18 @@
         <v>26</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="49"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8">
@@ -2497,7 +2668,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>24</v>
@@ -2505,9 +2676,9 @@
       <c r="F33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="8" t="s">
         <v>25</v>
       </c>
@@ -2515,18 +2686,18 @@
         <v>26</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8">
@@ -2536,7 +2707,7 @@
         <v>45451.0</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>22</v>
@@ -2547,9 +2718,9 @@
       <c r="F34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="8" t="s">
         <v>25</v>
       </c>
@@ -2557,16 +2728,16 @@
         <v>26</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M34" s="16"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8">
@@ -2579,7 +2750,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>24</v>
@@ -2587,9 +2758,9 @@
       <c r="F35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="8" t="s">
         <v>25</v>
       </c>
@@ -2597,18 +2768,18 @@
         <v>26</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2655,12 +2826,14 @@
   <hyperlinks>
     <hyperlink r:id="rId2" location="gid=2018380987" ref="O1"/>
     <hyperlink r:id="rId3" ref="G2"/>
-    <hyperlink r:id="rId4" ref="P2"/>
-    <hyperlink r:id="rId5" ref="P3"/>
-    <hyperlink r:id="rId6" ref="K10"/>
-    <hyperlink r:id="rId7" location="gid=0" ref="O10"/>
+    <hyperlink r:id="rId4" ref="O2"/>
+    <hyperlink r:id="rId5" ref="P2"/>
+    <hyperlink r:id="rId6" ref="P3"/>
+    <hyperlink r:id="rId7" ref="K10"/>
+    <hyperlink r:id="rId8" location="gid=0" ref="O10"/>
+    <hyperlink r:id="rId9" ref="P14"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/2024 Game Day Info/PUL 2024 Game Day Requirement Tracking.xlsx
+++ b/2024 Game Day Info/PUL 2024 Game Day Requirement Tracking.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Kc1vNw2zl/+sAypwp5BI9cEMLrCbXLRfCSMf0QylamM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MuiNEkkez8dijEAs2Gv5fY5eK1AUiPvG0XuZoWCIsjA="/>
     </ext>
   </extLst>
 </workbook>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="100">
   <si>
     <t>Commissioner</t>
   </si>
@@ -359,9 +359,15 @@
     <t>9xm5-fmp1-trhp-91k6-4kde</t>
   </si>
   <si>
+    <t>Ian Mcclelland, Dan Butler</t>
+  </si>
+  <si>
     <t>5pqe-qdv8-gswv-c3w1-4amg</t>
   </si>
   <si>
+    <t>Enzo Cianelli, Elshaddai Girma</t>
+  </si>
+  <si>
     <t>auhk-u243-dmv6-ztfr-b481</t>
   </si>
   <si>
@@ -371,6 +377,9 @@
     <t>Ultiworld</t>
   </si>
   <si>
+    <t xml:space="preserve">Moi Li + Gary Delia </t>
+  </si>
+  <si>
     <t>es89-qsbx-97vp-52v0-fbzf</t>
   </si>
   <si>
@@ -380,13 +389,19 @@
     <t>fabm-h4w9-e035-42b1-77aq</t>
   </si>
   <si>
+    <t>Chris Vanni, Jackson Dolan, Ben DeForest, Joe Campbell</t>
+  </si>
+  <si>
     <t>yyeu-bcc5-jd1b-tyrs-f7jh</t>
   </si>
   <si>
-    <t>Steve Haynes</t>
+    <t>Steve Haynes, Sam Wood</t>
   </si>
   <si>
     <t>yk08-10mz-mbu3-1raa-fr5j</t>
+  </si>
+  <si>
+    <t>Brad Tinney, Brad Smith, Scott Hetu, Craig McGowan</t>
   </si>
   <si>
     <t>4trv-tujt-fx6f-u1y6-10s3</t>
@@ -543,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -703,10 +718,16 @@
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1920,7 +1941,9 @@
       <c r="N16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="O16" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="P16" s="25" t="s">
         <v>25</v>
       </c>
@@ -1978,7 +2001,9 @@
       <c r="N17" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="28"/>
+      <c r="O17" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
@@ -2010,10 +2035,10 @@
       <c r="H18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="16" t="s">
@@ -2028,7 +2053,9 @@
       <c r="N18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="P18" s="25" t="s">
         <v>25</v>
       </c>
@@ -2063,11 +2090,13 @@
       <c r="G19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="18" t="s">
+      <c r="H19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="23" t="s">
@@ -2085,9 +2114,15 @@
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
+      <c r="R19" s="22">
+        <v>3712.0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>350.0</v>
+      </c>
+      <c r="T19" s="22">
+        <v>961.0</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="8">
@@ -2118,7 +2153,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>26</v>
@@ -2127,13 +2162,27 @@
         <v>77</v>
       </c>
       <c r="M20" s="16"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="N20" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>169.0</v>
+      </c>
+      <c r="R20" s="53">
+        <v>3822.31</v>
+      </c>
+      <c r="S20" s="25">
+        <v>260.0</v>
+      </c>
+      <c r="T20" s="53">
+        <v>454.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8">
@@ -2160,7 +2209,9 @@
       <c r="H21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
@@ -2168,12 +2219,14 @@
         <v>26</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="53"/>
+      <c r="N21" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
@@ -2206,7 +2259,9 @@
       <c r="H22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J22" s="8" t="s">
         <v>25</v>
       </c>
@@ -2214,10 +2269,10 @@
         <v>26</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M22" s="16"/>
-      <c r="N22" s="53"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
@@ -2229,7 +2284,7 @@
       <c r="A23" s="8">
         <v>7.0</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="55">
         <v>45431.0</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2244,9 +2299,15 @@
       <c r="F23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="J23" s="8" t="s">
         <v>25</v>
       </c>
@@ -2254,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>28</v>
@@ -2273,7 +2334,7 @@
       <c r="A24" s="8">
         <v>7.0</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="55">
         <v>45430.0</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2291,7 +2352,9 @@
       <c r="G24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I24" s="25" t="s">
         <v>25</v>
       </c>
@@ -2299,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>55</v>
@@ -2307,19 +2370,29 @@
       <c r="M24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="28"/>
+      <c r="N24" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
+      <c r="Q24" s="25">
+        <v>122.0</v>
+      </c>
+      <c r="R24" s="56">
+        <v>2567.5</v>
+      </c>
+      <c r="S24" s="25">
+        <v>165.0</v>
+      </c>
       <c r="T24" s="28"/>
     </row>
     <row r="25" ht="27.0" customHeight="1">
       <c r="A25" s="30">
         <v>8.0</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="57">
         <v>45437.0</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2337,29 +2410,31 @@
       <c r="G25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="H25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="58"/>
       <c r="J25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="57" t="s">
-        <v>82</v>
+      <c r="K25" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>85</v>
       </c>
       <c r="M25" s="35" t="s">
         <v>28</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25" s="56"/>
+        <v>86</v>
+      </c>
+      <c r="O25" s="58"/>
       <c r="P25" s="33"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8">
@@ -2380,7 +2455,9 @@
       <c r="F26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="8" t="s">
@@ -2390,12 +2467,14 @@
         <v>26</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="53"/>
+      <c r="N26" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
@@ -2434,13 +2513,13 @@
         <v>26</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -2478,12 +2557,14 @@
         <v>26</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="53"/>
+      <c r="N28" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
@@ -2520,12 +2601,12 @@
         <v>26</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="53"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -2552,7 +2633,9 @@
       <c r="F30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="8" t="s">
@@ -2562,12 +2645,12 @@
         <v>26</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="53"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
@@ -2604,10 +2687,10 @@
         <v>26</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="58"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
@@ -2644,12 +2727,12 @@
         <v>26</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="53"/>
+      <c r="N32" s="54"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
@@ -2686,12 +2769,12 @@
         <v>26</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="53"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
@@ -2703,7 +2786,7 @@
       <c r="A34" s="8">
         <v>10.0</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="55">
         <v>45451.0</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2728,10 +2811,10 @@
         <v>26</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M34" s="16"/>
-      <c r="N34" s="53"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
@@ -2768,12 +2851,12 @@
         <v>26</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N35" s="53"/>
+      <c r="N35" s="54"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="28"/>
